--- a/file/file.xlsx
+++ b/file/file.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>ID Lương</t>
-  </si>
-  <si>
     <t>Ngày Tính Lương</t>
   </si>
   <si>
@@ -53,10 +50,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>LCN0001</t>
-  </si>
-  <si>
-    <t>2023-12-08</t>
+    <t>11/12/2023</t>
   </si>
   <si>
     <t>A1</t>
@@ -68,49 +62,73 @@
     <t>Nguyễn Văn An</t>
   </si>
   <si>
-    <t>20h</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1,200,000 VND</t>
-  </si>
-  <si>
-    <t>682,500 VND</t>
+    <t>44.0h</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>91,350,000 VND</t>
+  </si>
+  <si>
+    <t>63,262,500 VND</t>
   </si>
   <si>
     <t>700,000 VND</t>
   </si>
   <si>
-    <t>2,582,500 VND</t>
+    <t>155,312,500 VND</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>LCN0002</t>
-  </si>
-  <si>
-    <t>CN0004</t>
-  </si>
-  <si>
-    <t>Trần Thị Mai</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>750,000 VND</t>
-  </si>
-  <si>
-    <t>0 VND</t>
-  </si>
-  <si>
-    <t>1,450,000 VND</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>CN0002</t>
+  </si>
+  <si>
+    <t>Phạm Thị Bình</t>
+  </si>
+  <si>
+    <t>390.0</t>
+  </si>
+  <si>
+    <t>104,050,000 VND</t>
+  </si>
+  <si>
+    <t>57,750,000 VND</t>
+  </si>
+  <si>
+    <t>162,500,000 VND</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>CN0003</t>
+  </si>
+  <si>
+    <t>Vũ Văn Minh</t>
+  </si>
+  <si>
+    <t>36.0h</t>
+  </si>
+  <si>
+    <t>290.0</t>
+  </si>
+  <si>
+    <t>41,600,000 VND</t>
+  </si>
+  <si>
+    <t>49,500,000 VND</t>
+  </si>
+  <si>
+    <t>91,800,000 VND</t>
   </si>
 </sst>
 </file>
@@ -155,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,84 +213,110 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="D4" t="s">
         <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/file/file.xlsx
+++ b/file/file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -62,22 +62,22 @@
     <t>Nguyễn Văn An</t>
   </si>
   <si>
-    <t>44.0h</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>91,350,000 VND</t>
-  </si>
-  <si>
-    <t>63,262,500 VND</t>
+    <t>28.0h</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>59,250,000 VND</t>
+  </si>
+  <si>
+    <t>37,012,500 VND</t>
   </si>
   <si>
     <t>700,000 VND</t>
   </si>
   <si>
-    <t>155,312,500 VND</t>
+    <t>96,962,500 VND</t>
   </si>
   <si>
     <t>2</t>
@@ -92,16 +92,13 @@
     <t>Phạm Thị Bình</t>
   </si>
   <si>
-    <t>390.0</t>
-  </si>
-  <si>
-    <t>104,050,000 VND</t>
-  </si>
-  <si>
-    <t>57,750,000 VND</t>
-  </si>
-  <si>
-    <t>162,500,000 VND</t>
+    <t>53,400,000 VND</t>
+  </si>
+  <si>
+    <t>31,500,000 VND</t>
+  </si>
+  <si>
+    <t>85,600,000 VND</t>
   </si>
   <si>
     <t>3</t>
@@ -116,19 +113,19 @@
     <t>Vũ Văn Minh</t>
   </si>
   <si>
-    <t>36.0h</t>
-  </si>
-  <si>
-    <t>290.0</t>
-  </si>
-  <si>
-    <t>41,600,000 VND</t>
-  </si>
-  <si>
-    <t>49,500,000 VND</t>
-  </si>
-  <si>
-    <t>91,800,000 VND</t>
+    <t>20.0h</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>23,100,000 VND</t>
+  </si>
+  <si>
+    <t>24,750,000 VND</t>
+  </si>
+  <si>
+    <t>48,550,000 VND</t>
   </si>
 </sst>
 </file>
@@ -269,54 +266,54 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/file/file.xlsx
+++ b/file/file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -50,7 +50,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>11/12/2023</t>
+    <t>05/12/2023</t>
   </si>
   <si>
     <t>A1</t>
@@ -62,22 +62,22 @@
     <t>Nguyễn Văn An</t>
   </si>
   <si>
-    <t>28.0h</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>59,250,000 VND</t>
-  </si>
-  <si>
-    <t>37,012,500 VND</t>
+    <t>20.0h</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>800,000 VND</t>
+  </si>
+  <si>
+    <t>2,025,000 VND</t>
   </si>
   <si>
     <t>700,000 VND</t>
   </si>
   <si>
-    <t>96,962,500 VND</t>
+    <t>3,525,000 VND</t>
   </si>
   <si>
     <t>2</t>
@@ -92,13 +92,13 @@
     <t>Phạm Thị Bình</t>
   </si>
   <si>
-    <t>53,400,000 VND</t>
-  </si>
-  <si>
-    <t>31,500,000 VND</t>
-  </si>
-  <si>
-    <t>85,600,000 VND</t>
+    <t>1,705,000 VND</t>
+  </si>
+  <si>
+    <t>525,000 VND</t>
+  </si>
+  <si>
+    <t>2,930,000 VND</t>
   </si>
   <si>
     <t>3</t>
@@ -113,19 +113,88 @@
     <t>Vũ Văn Minh</t>
   </si>
   <si>
-    <t>20.0h</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>23,100,000 VND</t>
-  </si>
-  <si>
-    <t>24,750,000 VND</t>
-  </si>
-  <si>
-    <t>48,550,000 VND</t>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>2,610,000 VND</t>
+  </si>
+  <si>
+    <t>0 VND</t>
+  </si>
+  <si>
+    <t>3,310,000 VND</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CN0004</t>
+  </si>
+  <si>
+    <t>Trần Thị Mai</t>
+  </si>
+  <si>
+    <t>12.0h</t>
+  </si>
+  <si>
+    <t>1,837,500 VND</t>
+  </si>
+  <si>
+    <t>2,537,500 VND</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CN0006</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngọc</t>
+  </si>
+  <si>
+    <t>1,323,000 VND</t>
+  </si>
+  <si>
+    <t>2,023,000 VND</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CN0007</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tuấn</t>
+  </si>
+  <si>
+    <t>24.0h</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>1,640,000 VND</t>
+  </si>
+  <si>
+    <t>270,000 VND</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CN0008</t>
+  </si>
+  <si>
+    <t>Trần Thị Lan</t>
+  </si>
+  <si>
+    <t>1,237,500 VND</t>
+  </si>
+  <si>
+    <t>570,000 VND</t>
+  </si>
+  <si>
+    <t>2,507,500 VND</t>
   </si>
 </sst>
 </file>
@@ -170,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -298,22 +367,162 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/file/file.xlsx
+++ b/file/file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -62,22 +62,22 @@
     <t>Nguyễn Văn An</t>
   </si>
   <si>
-    <t>28.0h</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>5,925,000 VND</t>
-  </si>
-  <si>
-    <t>3,701,250 VND</t>
-  </si>
-  <si>
-    <t>700,000 VND</t>
-  </si>
-  <si>
-    <t>3,525,000 VND</t>
+    <t>120.0h</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>1.890.000 VND</t>
+  </si>
+  <si>
+    <t>2.280.000 VND</t>
+  </si>
+  <si>
+    <t>700.000 VND</t>
+  </si>
+  <si>
+    <t>4.870.000 VND</t>
   </si>
   <si>
     <t>2</t>
@@ -92,19 +92,13 @@
     <t>Phạm Thị Bình</t>
   </si>
   <si>
-    <t>44.0h</t>
-  </si>
-  <si>
-    <t>330.0</t>
-  </si>
-  <si>
-    <t>7,140,000 VND</t>
-  </si>
-  <si>
-    <t>6,300,000 VND</t>
-  </si>
-  <si>
-    <t>2,930,000 VND</t>
+    <t>1.968.000 VND</t>
+  </si>
+  <si>
+    <t>1.620.000 VND</t>
+  </si>
+  <si>
+    <t>4.288.000 VND</t>
   </si>
   <si>
     <t>3</t>
@@ -119,13 +113,13 @@
     <t>Vũ Văn Minh</t>
   </si>
   <si>
-    <t>3,810,000 VND</t>
-  </si>
-  <si>
-    <t>2,475,000 VND</t>
-  </si>
-  <si>
-    <t>3,310,000 VND</t>
+    <t>1.650.000 VND</t>
+  </si>
+  <si>
+    <t>1.863.000 VND</t>
+  </si>
+  <si>
+    <t>4.213.000 VND</t>
   </si>
   <si>
     <t>4</t>
@@ -137,31 +131,55 @@
     <t>Trần Thị Mai</t>
   </si>
   <si>
-    <t>0.0h</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0 VND</t>
-  </si>
-  <si>
-    <t>2,537,500 VND</t>
+    <t>1.188.000 VND</t>
+  </si>
+  <si>
+    <t>3.778.000 VND</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>CN0005</t>
+  </si>
+  <si>
+    <t>Lê Thanh Hùng</t>
+  </si>
+  <si>
+    <t>92.0h</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>942.000 VND</t>
+  </si>
+  <si>
+    <t>1.458.000 VND</t>
+  </si>
+  <si>
+    <t>3.100.000 VND</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>CN0006</t>
   </si>
   <si>
     <t>Hoàng Thị Ngọc</t>
   </si>
   <si>
-    <t>2,023,000 VND</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>1.566.000 VND</t>
+  </si>
+  <si>
+    <t>810.000 VND</t>
+  </si>
+  <si>
+    <t>3.076.000 VND</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>CN0007</t>
@@ -170,19 +188,13 @@
     <t>Phạm Văn Tuấn</t>
   </si>
   <si>
-    <t>2,610,000 VND</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CN0008</t>
-  </si>
-  <si>
-    <t>Trần Thị Lan</t>
-  </si>
-  <si>
-    <t>2,507,500 VND</t>
+    <t>2.268.000 VND</t>
+  </si>
+  <si>
+    <t>450.000 VND</t>
+  </si>
+  <si>
+    <t>3.418.000 VND</t>
   </si>
 </sst>
 </file>
@@ -320,39 +332,39 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -361,21 +373,21 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -384,57 +396,57 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -451,7 +463,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -460,57 +472,57 @@
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/file/file.xlsx
+++ b/file/file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>STT</t>
   </si>
@@ -68,16 +68,16 @@
     <t>170.0</t>
   </si>
   <si>
-    <t>1.890.000 VND</t>
-  </si>
-  <si>
-    <t>2.280.000 VND</t>
-  </si>
-  <si>
-    <t>700.000 VND</t>
-  </si>
-  <si>
-    <t>4.870.000 VND</t>
+    <t>1,890,000 VND</t>
+  </si>
+  <si>
+    <t>2,280,000 VND</t>
+  </si>
+  <si>
+    <t>700,000 VND</t>
+  </si>
+  <si>
+    <t>4,870,000 VND</t>
   </si>
   <si>
     <t>2</t>
@@ -92,13 +92,13 @@
     <t>Phạm Thị Bình</t>
   </si>
   <si>
-    <t>1.968.000 VND</t>
-  </si>
-  <si>
-    <t>1.620.000 VND</t>
-  </si>
-  <si>
-    <t>4.288.000 VND</t>
+    <t>1,968,000 VND</t>
+  </si>
+  <si>
+    <t>1,620,000 VND</t>
+  </si>
+  <si>
+    <t>4,288,000 VND</t>
   </si>
   <si>
     <t>3</t>
@@ -113,13 +113,13 @@
     <t>Vũ Văn Minh</t>
   </si>
   <si>
-    <t>1.650.000 VND</t>
-  </si>
-  <si>
-    <t>1.863.000 VND</t>
-  </si>
-  <si>
-    <t>4.213.000 VND</t>
+    <t>1,650,000 VND</t>
+  </si>
+  <si>
+    <t>1,863,000 VND</t>
+  </si>
+  <si>
+    <t>4,213,000 VND</t>
   </si>
   <si>
     <t>4</t>
@@ -131,10 +131,10 @@
     <t>Trần Thị Mai</t>
   </si>
   <si>
-    <t>1.188.000 VND</t>
-  </si>
-  <si>
-    <t>3.778.000 VND</t>
+    <t>1,188,000 VND</t>
+  </si>
+  <si>
+    <t>3,778,000 VND</t>
   </si>
   <si>
     <t>5</t>
@@ -152,13 +152,13 @@
     <t>120.0</t>
   </si>
   <si>
-    <t>942.000 VND</t>
-  </si>
-  <si>
-    <t>1.458.000 VND</t>
-  </si>
-  <si>
-    <t>3.100.000 VND</t>
+    <t>942,000 VND</t>
+  </si>
+  <si>
+    <t>1,458,000 VND</t>
+  </si>
+  <si>
+    <t>3,100,000 VND</t>
   </si>
   <si>
     <t>6</t>
@@ -170,13 +170,13 @@
     <t>Hoàng Thị Ngọc</t>
   </si>
   <si>
-    <t>1.566.000 VND</t>
-  </si>
-  <si>
-    <t>810.000 VND</t>
-  </si>
-  <si>
-    <t>3.076.000 VND</t>
+    <t>1,566,000 VND</t>
+  </si>
+  <si>
+    <t>810,000 VND</t>
+  </si>
+  <si>
+    <t>3,076,000 VND</t>
   </si>
   <si>
     <t>7</t>
@@ -188,13 +188,31 @@
     <t>Phạm Văn Tuấn</t>
   </si>
   <si>
-    <t>2.268.000 VND</t>
-  </si>
-  <si>
-    <t>450.000 VND</t>
-  </si>
-  <si>
-    <t>3.418.000 VND</t>
+    <t>2,268,000 VND</t>
+  </si>
+  <si>
+    <t>450,000 VND</t>
+  </si>
+  <si>
+    <t>3,418,000 VND</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>CN0008</t>
+  </si>
+  <si>
+    <t>Trần Thị Lan</t>
+  </si>
+  <si>
+    <t>1,134,000 VND</t>
+  </si>
+  <si>
+    <t>4,102,000 VND</t>
   </si>
 </sst>
 </file>
@@ -239,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -525,6 +543,41 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
